--- a/써도돼 마일스톤.xlsx
+++ b/써도돼 마일스톤.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -323,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -580,28 +580,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,25 +724,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -764,11 +751,62 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T31"/>
+  <dimension ref="B1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1108,755 +1146,755 @@
     <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:20" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="53" t="s">
+    <row r="1" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:21" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="59" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="62"/>
+    </row>
+    <row r="3" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="50" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="49" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="49" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
-    </row>
-    <row r="4" spans="2:20" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="60"/>
-      <c r="C4" s="52" t="s">
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="59"/>
+    </row>
+    <row r="4" spans="2:21" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="56"/>
+      <c r="D4" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="E4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="F4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="G4" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="H4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="I4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="J4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="K4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="L4" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="M4" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="N4" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="O4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="P4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="Q4" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="R4" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="S4" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="T4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="U4" s="50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="53" t="s">
+    <row r="5" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="11"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="9"/>
       <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="32" t="s">
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="16"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="14"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="47" t="s">
+      <c r="R6" s="10"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="48" t="s">
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="24"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B9" s="32" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="21"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B9" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="16"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="13"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B10" s="47" t="s">
+      <c r="R9" s="10"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B10" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="19"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B11" s="47" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B11" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="37"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="19"/>
-    </row>
-    <row r="12" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="48" t="s">
+      <c r="O11" s="69"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="43"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="38"/>
       <c r="S12" s="40"/>
-      <c r="T12" s="24"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B13" s="32" t="s">
+      <c r="T12" s="37"/>
+      <c r="U12" s="21"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="16"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B14" s="47" t="s">
+      <c r="R13" s="10"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B14" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="19"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B15" s="47" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="16"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="19"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B16" s="47" t="s">
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="16"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="19"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B17" s="47" t="s">
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="51"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B17" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="19"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B18" s="47" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="52"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B18" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="21"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="33"/>
       <c r="Q18" s="18"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="19"/>
-    </row>
-    <row r="19" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="48" t="s">
+      <c r="R18" s="15"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="51"/>
+    </row>
+    <row r="19" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="24"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B20" s="32" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="21"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="16"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="14"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B21" s="47" t="s">
+      <c r="R20" s="10"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="11"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B21" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="21"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="33"/>
       <c r="Q21" s="18"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="19"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B22" s="47" t="s">
+      <c r="R21" s="15"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B22" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="19"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B23" s="47" t="s">
+      <c r="D22" s="68"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="16"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B23" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="19"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B24" s="47" t="s">
+      <c r="D23" s="68"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="32"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="19"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B25" s="47" t="s">
+      <c r="D24" s="68"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B25" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="21"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="33"/>
       <c r="Q25" s="18"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="19"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B26" s="47" t="s">
+      <c r="R25" s="15"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B26" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="19"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B27" s="47" t="s">
+      <c r="D26" s="68"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="16"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B27" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="19"/>
-    </row>
-    <row r="28" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="48" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="24"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B29" s="32" t="s">
+      <c r="D28" s="30"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="21"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B29" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="16"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="14"/>
       <c r="Q29" s="13"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="14"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B30" s="47" t="s">
+      <c r="R29" s="10"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="11"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B30" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="68"/>
+      <c r="E30" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="46" t="s">
+      <c r="F30" s="63"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="19"/>
-    </row>
-    <row r="31" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="48" t="s">
+      <c r="I30" s="63"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="44"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
